--- a/BalanceSheet/DLR_bal.xlsx
+++ b/BalanceSheet/DLR_bal.xlsx
@@ -4296,10 +4296,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>13035700000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>14883000000.0</v>
@@ -4425,10 +4423,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>13256840000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>15007000000.0</v>
